--- a/data/trans_orig/P1411-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1411-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C24638E-37FF-4FFB-AAFD-BC60C108B30A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{16F9A6A8-C543-485F-AB10-EE82EA711973}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2F27FA66-AE0B-4190-B118-4FF23141DB25}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{94278E56-BF0C-4AF4-87EF-3E2C6B17FBB1}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="239">
   <si>
     <t>Población con diagnóstico de infarto de miocardio en 2012 (Tasa respuesta: 99,95%)</t>
   </si>
@@ -94,19 +94,19 @@
     <t>0,72%</t>
   </si>
   <si>
-    <t>3,72%</t>
+    <t>3,84%</t>
   </si>
   <si>
     <t>1,05%</t>
   </si>
   <si>
-    <t>4,32%</t>
+    <t>5,15%</t>
   </si>
   <si>
     <t>0,88%</t>
   </si>
   <si>
-    <t>2,77%</t>
+    <t>2,88%</t>
   </si>
   <si>
     <t>No</t>
@@ -115,7 +115,7 @@
     <t>99,28%</t>
   </si>
   <si>
-    <t>96,28%</t>
+    <t>96,16%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -124,13 +124,13 @@
     <t>98,95%</t>
   </si>
   <si>
-    <t>95,68%</t>
+    <t>94,85%</t>
   </si>
   <si>
     <t>99,12%</t>
   </si>
   <si>
-    <t>97,23%</t>
+    <t>97,12%</t>
   </si>
   <si>
     <t>100%</t>
@@ -148,55 +148,55 @@
     <t>2,4%</t>
   </si>
   <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
   </si>
   <si>
     <t>1,46%</t>
   </si>
   <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
   </si>
   <si>
     <t>1,93%</t>
   </si>
   <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
   </si>
   <si>
     <t>97,6%</t>
   </si>
   <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
   </si>
   <si>
     <t>98,54%</t>
   </si>
   <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
   </si>
   <si>
     <t>98,07%</t>
   </si>
   <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -211,511 +211,481 @@
     <t>2,15%</t>
   </si>
   <si>
-    <t>1,29%</t>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de infarto de miocardio en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
   </si>
   <si>
     <t>3,33%</t>
   </si>
   <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
   </si>
   <si>
     <t>2,21%</t>
   </si>
   <si>
-    <t>97,85%</t>
-  </si>
-  <si>
     <t>96,67%</t>
   </si>
   <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
   </si>
   <si>
     <t>97,79%</t>
   </si>
   <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de infarto de miocardio en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
   </si>
   <si>
     <t>0,91%</t>
   </si>
   <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
   </si>
   <si>
     <t>99,09%</t>
   </si>
   <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
     <t>98,4%</t>
   </si>
   <si>
-    <t>98,69%</t>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
   </si>
   <si>
     <t>Población con diagnóstico de infarto de miocardio en 2023 (Tasa respuesta: 100,0%)</t>
@@ -724,13 +694,7 @@
     <t>99,21%</t>
   </si>
   <si>
-    <t>99,47%</t>
-  </si>
-  <si>
     <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
   </si>
   <si>
     <t>99,69%</t>
@@ -1202,7 +1166,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{219FE0AE-DBA5-441E-ABF7-00015973F5DF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4ABBA3C-1B46-4256-BC9F-8C81D4023682}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1995,13 +1959,13 @@
         <v>10335</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="H17" s="7">
         <v>7</v>
@@ -2010,13 +1974,13 @@
         <v>7809</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="M17" s="7">
         <v>17</v>
@@ -2025,13 +1989,13 @@
         <v>18144</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2046,13 +2010,13 @@
         <v>747288</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H18" s="7">
         <v>698</v>
@@ -2061,13 +2025,13 @@
         <v>769365</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="M18" s="7">
         <v>1377</v>
@@ -2076,13 +2040,13 @@
         <v>1516653</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2138,7 +2102,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2156,7 +2120,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -2171,7 +2135,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -2201,13 +2165,13 @@
         <v>23444</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="H21" s="7">
         <v>11</v>
@@ -2216,13 +2180,13 @@
         <v>10991</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="M21" s="7">
         <v>33</v>
@@ -2231,13 +2195,13 @@
         <v>34434</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>35</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2252,13 +2216,13 @@
         <v>924295</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="H22" s="7">
         <v>992</v>
@@ -2267,13 +2231,13 @@
         <v>1040910</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="M22" s="7">
         <v>1880</v>
@@ -2282,13 +2246,13 @@
         <v>1965206</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>44</v>
+        <v>108</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2362,7 +2326,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -2377,7 +2341,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -2392,7 +2356,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2407,13 +2371,13 @@
         <v>70636</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="H25" s="7">
         <v>36</v>
@@ -2422,13 +2386,13 @@
         <v>38176</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="M25" s="7">
         <v>100</v>
@@ -2440,10 +2404,10 @@
         <v>13</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2458,13 +2422,13 @@
         <v>3356143</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="H26" s="7">
         <v>3259</v>
@@ -2473,13 +2437,13 @@
         <v>3515740</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="M26" s="7">
         <v>6404</v>
@@ -2488,13 +2452,13 @@
         <v>6871881</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2550,7 +2514,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -2571,7 +2535,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C6FF45A-D9E3-44FE-B8A3-660E123B966E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ED76C9F-3EAB-4E0D-BCA7-6891657CA20D}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2588,7 +2552,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2701,7 +2665,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2716,7 +2680,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -2731,7 +2695,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2746,13 +2710,13 @@
         <v>1079</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -2767,7 +2731,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -2776,13 +2740,13 @@
         <v>1079</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2797,10 +2761,10 @@
         <v>115467</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>26</v>
@@ -2815,7 +2779,7 @@
         <v>26</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>31</v>
@@ -2827,10 +2791,10 @@
         <v>228827</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>26</v>
@@ -2907,7 +2871,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2937,7 +2901,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2952,13 +2916,13 @@
         <v>14301</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="H9" s="7">
         <v>10</v>
@@ -2967,13 +2931,13 @@
         <v>10843</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>58</v>
+        <v>149</v>
       </c>
       <c r="M9" s="7">
         <v>25</v>
@@ -2982,13 +2946,13 @@
         <v>25144</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3003,13 +2967,13 @@
         <v>543953</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="H10" s="7">
         <v>541</v>
@@ -3018,13 +2982,13 @@
         <v>548636</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>66</v>
+        <v>157</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="M10" s="7">
         <v>1065</v>
@@ -3033,13 +2997,13 @@
         <v>1092589</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3158,13 +3122,13 @@
         <v>18263</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>22</v>
+        <v>164</v>
       </c>
       <c r="H13" s="7">
         <v>14</v>
@@ -3173,13 +3137,13 @@
         <v>16818</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>168</v>
+        <v>112</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>169</v>
+        <v>133</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="M13" s="7">
         <v>32</v>
@@ -3188,13 +3152,13 @@
         <v>35081</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>172</v>
+        <v>83</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3209,13 +3173,13 @@
         <v>1004168</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>30</v>
+        <v>169</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="H14" s="7">
         <v>963</v>
@@ -3224,13 +3188,13 @@
         <v>1026095</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>176</v>
+        <v>121</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>178</v>
+        <v>137</v>
       </c>
       <c r="M14" s="7">
         <v>1896</v>
@@ -3239,13 +3203,13 @@
         <v>2030263</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>181</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3334,7 +3298,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -3349,7 +3313,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3364,13 +3328,13 @@
         <v>11231</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>85</v>
+        <v>177</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="H17" s="7">
         <v>6</v>
@@ -3379,13 +3343,13 @@
         <v>6839</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="M17" s="7">
         <v>17</v>
@@ -3394,13 +3358,13 @@
         <v>18070</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>190</v>
+        <v>17</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3415,13 +3379,13 @@
         <v>748321</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>95</v>
+        <v>186</v>
       </c>
       <c r="H18" s="7">
         <v>730</v>
@@ -3430,13 +3394,13 @@
         <v>778172</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="M18" s="7">
         <v>1415</v>
@@ -3445,13 +3409,13 @@
         <v>1526493</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>199</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3507,7 +3471,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3525,7 +3489,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -3570,13 +3534,13 @@
         <v>21901</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="H21" s="7">
         <v>9</v>
@@ -3585,13 +3549,13 @@
         <v>10051</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>203</v>
+        <v>60</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>204</v>
+        <v>100</v>
       </c>
       <c r="M21" s="7">
         <v>31</v>
@@ -3600,13 +3564,13 @@
         <v>31952</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>168</v>
+        <v>112</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3621,13 +3585,13 @@
         <v>915666</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="H22" s="7">
         <v>950</v>
@@ -3636,13 +3600,13 @@
         <v>1033728</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>210</v>
+        <v>107</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>211</v>
+        <v>70</v>
       </c>
       <c r="M22" s="7">
         <v>1860</v>
@@ -3651,13 +3615,13 @@
         <v>1949394</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>176</v>
+        <v>121</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3731,7 +3695,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -3746,7 +3710,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -3761,7 +3725,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3776,13 +3740,13 @@
         <v>66775</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>200</v>
+        <v>13</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="H25" s="7">
         <v>39</v>
@@ -3791,13 +3755,13 @@
         <v>44551</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="M25" s="7">
         <v>106</v>
@@ -3806,13 +3770,13 @@
         <v>111325</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>41</v>
+        <v>208</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3827,13 +3791,13 @@
         <v>3327575</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>208</v>
+        <v>125</v>
       </c>
       <c r="H26" s="7">
         <v>3299</v>
@@ -3842,13 +3806,13 @@
         <v>3499991</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="M26" s="7">
         <v>6463</v>
@@ -3857,13 +3821,13 @@
         <v>6827567</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>50</v>
+        <v>214</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3919,7 +3883,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -3940,7 +3904,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D8E7905-8D0C-4D6D-9960-EB95207E5DF1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77FB23A9-90E5-4E10-BC24-7DDD1DC37C6D}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3957,7 +3921,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4067,7 +4031,7 @@
         <v>26</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>176</v>
+        <v>121</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>31</v>
@@ -4082,7 +4046,7 @@
         <v>26</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>31</v>
@@ -4097,7 +4061,7 @@
         <v>26</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>228</v>
+        <v>106</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>31</v>
@@ -4121,7 +4085,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>168</v>
+        <v>112</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -4136,7 +4100,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -4151,7 +4115,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>230</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4172,7 +4136,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>168</v>
+        <v>112</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -4187,7 +4151,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -4202,7 +4166,7 @@
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>230</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4273,7 +4237,7 @@
         <v>26</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>31</v>
@@ -4288,7 +4252,7 @@
         <v>26</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>31</v>
@@ -4303,7 +4267,7 @@
         <v>26</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>31</v>
@@ -4327,7 +4291,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -4342,7 +4306,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -4357,7 +4321,7 @@
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4378,7 +4342,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -4393,7 +4357,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -4408,7 +4372,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4479,7 +4443,7 @@
         <v>26</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>31</v>
@@ -4494,7 +4458,7 @@
         <v>26</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>31</v>
@@ -4509,7 +4473,7 @@
         <v>26</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>31</v>
@@ -4548,7 +4512,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -4563,7 +4527,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4599,7 +4563,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -4614,7 +4578,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4685,7 +4649,7 @@
         <v>26</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>31</v>
@@ -4700,7 +4664,7 @@
         <v>26</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>31</v>
@@ -4715,7 +4679,7 @@
         <v>26</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>31</v>
@@ -4754,7 +4718,7 @@
         <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -4769,7 +4733,7 @@
         <v>12</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4805,7 +4769,7 @@
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -4820,7 +4784,7 @@
         <v>12</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4876,7 +4840,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -4891,7 +4855,7 @@
         <v>26</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>31</v>
@@ -4906,7 +4870,7 @@
         <v>26</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>31</v>
@@ -4921,7 +4885,7 @@
         <v>26</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>31</v>
@@ -4945,7 +4909,7 @@
         <v>12</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -4960,7 +4924,7 @@
         <v>12</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -4975,7 +4939,7 @@
         <v>12</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4996,7 +4960,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -5011,7 +4975,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -5026,7 +4990,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5097,7 +5061,7 @@
         <v>26</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>31</v>
@@ -5112,7 +5076,7 @@
         <v>26</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>31</v>
@@ -5121,13 +5085,13 @@
         <v>8743</v>
       </c>
       <c r="N24" s="7">
-        <v>7220809</v>
+        <v>7220808</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>26</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>31</v>
@@ -5151,7 +5115,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -5166,7 +5130,7 @@
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -5181,7 +5145,7 @@
         <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5202,7 +5166,7 @@
         <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -5217,7 +5181,7 @@
         <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -5232,7 +5196,7 @@
         <v>12</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5274,7 +5238,7 @@
         <v>8743</v>
       </c>
       <c r="N27" s="7">
-        <v>7220809</v>
+        <v>7220808</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>31</v>
@@ -5288,7 +5252,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1411-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1411-Habitat-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{16F9A6A8-C543-485F-AB10-EE82EA711973}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE8CA0A3-7140-441A-871B-C47F8B890D74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{94278E56-BF0C-4AF4-87EF-3E2C6B17FBB1}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C291447B-E6F8-4A64-A4D7-87A493C45129}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="241">
   <si>
     <t>Población con diagnóstico de infarto de miocardio en 2012 (Tasa respuesta: 99,95%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>No procede</t>
@@ -94,19 +94,19 @@
     <t>0,72%</t>
   </si>
   <si>
-    <t>3,84%</t>
+    <t>3,61%</t>
   </si>
   <si>
     <t>1,05%</t>
   </si>
   <si>
-    <t>5,15%</t>
+    <t>4,26%</t>
   </si>
   <si>
     <t>0,88%</t>
   </si>
   <si>
-    <t>2,88%</t>
+    <t>3,18%</t>
   </si>
   <si>
     <t>No</t>
@@ -115,7 +115,7 @@
     <t>99,28%</t>
   </si>
   <si>
-    <t>96,16%</t>
+    <t>96,39%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -124,19 +124,19 @@
     <t>98,95%</t>
   </si>
   <si>
-    <t>94,85%</t>
+    <t>95,74%</t>
   </si>
   <si>
     <t>99,12%</t>
   </si>
   <si>
-    <t>97,12%</t>
+    <t>96,82%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>0,35%</t>
@@ -148,7 +148,7 @@
     <t>2,4%</t>
   </si>
   <si>
-    <t>1,3%</t>
+    <t>1,29%</t>
   </si>
   <si>
     <t>4,07%</t>
@@ -157,544 +157,550 @@
     <t>1,46%</t>
   </si>
   <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
     <t>0,7%</t>
   </si>
   <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
   </si>
   <si>
     <t>99,3%</t>
   </si>
   <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de infarto de miocardio en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
   </si>
   <si>
     <t>0,68%</t>
   </si>
   <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
     <t>2,34%</t>
   </si>
   <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
   </si>
   <si>
     <t>97,66%</t>
   </si>
   <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de infarto de miocardio en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
   </si>
   <si>
     <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de infarto de miocardio en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de infarto de miocardio en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
   </si>
   <si>
     <t>99,69%</t>
@@ -1166,7 +1172,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4ABBA3C-1B46-4256-BC9F-8C81D4023682}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AA0E956-3E9E-48EF-BAFD-5D6EBB36F286}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1786,10 +1792,10 @@
         <v>62</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1804,13 +1810,13 @@
         <v>996019</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="H14" s="7">
         <v>928</v>
@@ -1819,13 +1825,13 @@
         <v>1018124</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="M14" s="7">
         <v>1845</v>
@@ -1834,13 +1840,13 @@
         <v>2014143</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="P14" s="7" t="s">
-        <v>72</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1896,7 +1902,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1914,37 +1920,37 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="M16" s="7">
+        <v>0</v>
+      </c>
+      <c r="N16" s="7">
+        <v>0</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="H16" s="7">
-        <v>0</v>
-      </c>
-      <c r="I16" s="7">
-        <v>0</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="M16" s="7">
-        <v>0</v>
-      </c>
-      <c r="N16" s="7">
-        <v>0</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1959,13 +1965,13 @@
         <v>10335</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="H17" s="7">
         <v>7</v>
@@ -1974,13 +1980,13 @@
         <v>7809</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="M17" s="7">
         <v>17</v>
@@ -1989,13 +1995,13 @@
         <v>18144</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2010,7 +2016,7 @@
         <v>747288</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>85</v>
@@ -2031,7 +2037,7 @@
         <v>88</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="M18" s="7">
         <v>1377</v>
@@ -2040,13 +2046,13 @@
         <v>1516653</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2186,7 +2192,7 @@
         <v>99</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="M21" s="7">
         <v>33</v>
@@ -2195,13 +2201,13 @@
         <v>34434</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2216,13 +2222,13 @@
         <v>924295</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H22" s="7">
         <v>992</v>
@@ -2231,13 +2237,13 @@
         <v>1040910</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="M22" s="7">
         <v>1880</v>
@@ -2246,13 +2252,13 @@
         <v>1965206</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>107</v>
+        <v>68</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2326,7 +2332,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -2341,7 +2347,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -2356,7 +2362,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2371,13 +2377,13 @@
         <v>70636</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H25" s="7">
         <v>36</v>
@@ -2386,13 +2392,13 @@
         <v>38176</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>116</v>
+        <v>38</v>
       </c>
       <c r="M25" s="7">
         <v>100</v>
@@ -2404,10 +2410,10 @@
         <v>13</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2422,13 +2428,13 @@
         <v>3356143</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H26" s="7">
         <v>3259</v>
@@ -2437,10 +2443,10 @@
         <v>3515740</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>123</v>
+        <v>47</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>124</v>
@@ -2535,7 +2541,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ED76C9F-3EAB-4E0D-BCA7-6891657CA20D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B2E58BB-80A0-4402-BACC-9718C37962E6}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2919,10 +2925,10 @@
         <v>144</v>
       </c>
       <c r="F9" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="H9" s="7">
         <v>10</v>
@@ -2931,13 +2937,13 @@
         <v>10843</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="M9" s="7">
         <v>25</v>
@@ -2946,13 +2952,13 @@
         <v>25144</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2967,13 +2973,13 @@
         <v>543953</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>154</v>
-      </c>
       <c r="G10" s="7" t="s">
-        <v>155</v>
+        <v>70</v>
       </c>
       <c r="H10" s="7">
         <v>541</v>
@@ -2982,13 +2988,13 @@
         <v>548636</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="M10" s="7">
         <v>1065</v>
@@ -2997,13 +3003,13 @@
         <v>1092589</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3122,13 +3128,13 @@
         <v>18263</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>163</v>
+        <v>116</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="H13" s="7">
         <v>14</v>
@@ -3137,13 +3143,13 @@
         <v>16818</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>112</v>
+        <v>162</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>133</v>
+        <v>163</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M13" s="7">
         <v>32</v>
@@ -3152,13 +3158,13 @@
         <v>35081</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3173,13 +3179,13 @@
         <v>1004168</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>169</v>
-      </c>
       <c r="G14" s="7" t="s">
-        <v>170</v>
+        <v>123</v>
       </c>
       <c r="H14" s="7">
         <v>963</v>
@@ -3188,13 +3194,13 @@
         <v>1026095</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>121</v>
+        <v>169</v>
       </c>
       <c r="K14" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="M14" s="7">
         <v>1896</v>
@@ -3209,7 +3215,7 @@
         <v>173</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3265,7 +3271,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3283,7 +3289,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3361,10 +3367,10 @@
         <v>182</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>17</v>
+        <v>183</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3412,10 +3418,10 @@
         <v>190</v>
       </c>
       <c r="P18" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3534,13 +3540,13 @@
         <v>21901</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>79</v>
+        <v>192</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H21" s="7">
         <v>9</v>
@@ -3549,13 +3555,13 @@
         <v>10051</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>60</v>
+        <v>196</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>100</v>
+        <v>197</v>
       </c>
       <c r="M21" s="7">
         <v>31</v>
@@ -3564,13 +3570,13 @@
         <v>31952</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>112</v>
+        <v>162</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3585,13 +3591,13 @@
         <v>915666</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>85</v>
+        <v>200</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H22" s="7">
         <v>950</v>
@@ -3600,13 +3606,13 @@
         <v>1033728</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>107</v>
+        <v>204</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>70</v>
+        <v>205</v>
       </c>
       <c r="M22" s="7">
         <v>1860</v>
@@ -3615,13 +3621,13 @@
         <v>1949394</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>121</v>
+        <v>169</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3695,7 +3701,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -3710,7 +3716,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -3725,7 +3731,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3740,13 +3746,13 @@
         <v>66775</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>203</v>
+        <v>95</v>
       </c>
       <c r="H25" s="7">
         <v>39</v>
@@ -3755,13 +3761,13 @@
         <v>44551</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>205</v>
+        <v>163</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>100</v>
+        <v>209</v>
       </c>
       <c r="M25" s="7">
         <v>106</v>
@@ -3770,13 +3776,13 @@
         <v>111325</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>208</v>
+        <v>146</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3791,13 +3797,13 @@
         <v>3327575</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>210</v>
+        <v>103</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>125</v>
+        <v>70</v>
       </c>
       <c r="H26" s="7">
         <v>3299</v>
@@ -3806,13 +3812,13 @@
         <v>3499991</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>107</v>
+        <v>213</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>212</v>
+        <v>171</v>
       </c>
       <c r="M26" s="7">
         <v>6463</v>
@@ -3821,10 +3827,10 @@
         <v>6827567</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>214</v>
+        <v>154</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>215</v>
@@ -3904,7 +3910,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77FB23A9-90E5-4E10-BC24-7DDD1DC37C6D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33D373FD-1825-402C-8626-1BF08159A458}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4031,7 +4037,7 @@
         <v>26</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>121</v>
+        <v>169</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>31</v>
@@ -4061,7 +4067,7 @@
         <v>26</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>106</v>
+        <v>218</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>31</v>
@@ -4085,7 +4091,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>112</v>
+        <v>162</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -4100,7 +4106,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -4115,7 +4121,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>99</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4136,7 +4142,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>112</v>
+        <v>162</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -4151,7 +4157,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -4166,7 +4172,7 @@
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>99</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4237,7 +4243,7 @@
         <v>26</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>31</v>
@@ -4252,7 +4258,7 @@
         <v>26</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>31</v>
@@ -4267,7 +4273,7 @@
         <v>26</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>31</v>
@@ -4291,7 +4297,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -4321,7 +4327,7 @@
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4342,7 +4348,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -4372,7 +4378,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4443,7 +4449,7 @@
         <v>26</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>31</v>
@@ -4458,7 +4464,7 @@
         <v>26</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>31</v>
@@ -4473,7 +4479,7 @@
         <v>26</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>31</v>
@@ -4527,7 +4533,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4578,7 +4584,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4634,7 +4640,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4649,7 +4655,7 @@
         <v>26</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>31</v>
@@ -4664,7 +4670,7 @@
         <v>26</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>31</v>
@@ -4679,7 +4685,7 @@
         <v>26</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>31</v>
@@ -4703,7 +4709,7 @@
         <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -4733,7 +4739,7 @@
         <v>12</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4754,7 +4760,7 @@
         <v>12</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -4784,7 +4790,7 @@
         <v>12</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4855,7 +4861,7 @@
         <v>26</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>31</v>
@@ -4870,7 +4876,7 @@
         <v>26</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>31</v>
@@ -4885,7 +4891,7 @@
         <v>26</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>31</v>
@@ -4924,7 +4930,7 @@
         <v>12</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -4939,7 +4945,7 @@
         <v>12</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4975,7 +4981,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -4990,7 +4996,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5061,7 +5067,7 @@
         <v>26</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>31</v>
@@ -5076,7 +5082,7 @@
         <v>26</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>31</v>
@@ -5091,7 +5097,7 @@
         <v>26</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>31</v>
@@ -5115,7 +5121,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -5130,7 +5136,7 @@
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -5145,7 +5151,7 @@
         <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5166,7 +5172,7 @@
         <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -5181,7 +5187,7 @@
         <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -5196,7 +5202,7 @@
         <v>12</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P1411-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1411-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0476DE5D-6433-4957-A2BE-4475B910C981}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{095E75A6-3961-415F-9DCD-9B53AC3C46F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{AB9A7F0A-D05D-43EB-857B-F9BCC2E211FF}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{32FDF1A8-7650-4EBC-B475-FA6577E7E3BB}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="184">
   <si>
     <t>Población con diagnóstico de infarto de miocardio en 2012 (Tasa respuesta: 99,95%)</t>
   </si>
@@ -66,595 +66,529 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de infarto de miocardio en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
   </si>
   <si>
     <t>2,77%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
   </si>
   <si>
     <t>97,23%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
   </si>
   <si>
     <t>1,93%</t>
   </si>
   <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
   </si>
   <si>
     <t>98,07%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de infarto de miocardio en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
   </si>
 </sst>
 </file>
@@ -1066,8 +1000,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C05CAE4E-CA2A-4551-ACEF-B067028ADD0A}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC1E459A-4291-4827-9BF1-D4AF1C9AB0ED}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1184,10 +1118,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D4" s="7">
-        <v>829</v>
+        <v>14930</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1199,85 +1133,85 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I4" s="7">
-        <v>1172</v>
+        <v>9710</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="N4" s="7">
-        <v>2001</v>
+        <v>24640</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>121</v>
+        <v>661</v>
       </c>
       <c r="D5" s="7">
-        <v>114936</v>
+        <v>688539</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>98</v>
+        <v>641</v>
       </c>
       <c r="I5" s="7">
-        <v>110733</v>
+        <v>687340</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>219</v>
+        <v>1302</v>
       </c>
       <c r="N5" s="7">
-        <v>225669</v>
+        <v>1375879</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1286,153 +1220,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>122</v>
+        <v>674</v>
       </c>
       <c r="D6" s="7">
-        <v>115765</v>
+        <v>703469</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>99</v>
+        <v>650</v>
       </c>
       <c r="I6" s="7">
-        <v>111905</v>
+        <v>697050</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>221</v>
+        <v>1324</v>
       </c>
       <c r="N6" s="7">
-        <v>227670</v>
+        <v>1400519</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D7" s="7">
-        <v>14102</v>
+        <v>21928</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="7">
+        <v>9</v>
+      </c>
+      <c r="I7" s="7">
+        <v>9667</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="M7" s="7">
         <v>28</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H7" s="7">
-        <v>8</v>
-      </c>
-      <c r="I7" s="7">
-        <v>8537</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="M7" s="7">
-        <v>20</v>
-      </c>
       <c r="N7" s="7">
-        <v>22639</v>
+        <v>31595</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>540</v>
+        <v>917</v>
       </c>
       <c r="D8" s="7">
-        <v>573602</v>
+        <v>996019</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>543</v>
+        <v>928</v>
       </c>
       <c r="I8" s="7">
-        <v>576608</v>
+        <v>1018124</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>1083</v>
+        <v>1845</v>
       </c>
       <c r="N8" s="7">
-        <v>1150210</v>
+        <v>2014143</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1441,153 +1375,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>552</v>
+        <v>936</v>
       </c>
       <c r="D9" s="7">
-        <v>587704</v>
+        <v>1017947</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>551</v>
+        <v>937</v>
       </c>
       <c r="I9" s="7">
-        <v>585145</v>
+        <v>1027791</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1103</v>
+        <v>1873</v>
       </c>
       <c r="N9" s="7">
-        <v>1172849</v>
+        <v>2045738</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D10" s="7">
-        <v>21928</v>
+        <v>10335</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I10" s="7">
-        <v>9667</v>
+        <v>7809</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="N10" s="7">
-        <v>31595</v>
+        <v>18144</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>917</v>
+        <v>679</v>
       </c>
       <c r="D11" s="7">
-        <v>996019</v>
+        <v>747288</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>928</v>
+        <v>698</v>
       </c>
       <c r="I11" s="7">
-        <v>1018124</v>
+        <v>769365</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>1845</v>
+        <v>1377</v>
       </c>
       <c r="N11" s="7">
-        <v>2014143</v>
+        <v>1516653</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1596,153 +1530,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>936</v>
+        <v>689</v>
       </c>
       <c r="D12" s="7">
-        <v>1017947</v>
+        <v>757623</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>937</v>
+        <v>705</v>
       </c>
       <c r="I12" s="7">
-        <v>1027791</v>
+        <v>777174</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1873</v>
+        <v>1394</v>
       </c>
       <c r="N12" s="7">
-        <v>2045738</v>
+        <v>1534797</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D13" s="7">
-        <v>10335</v>
+        <v>23444</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="I13" s="7">
-        <v>7809</v>
+        <v>10991</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="N13" s="7">
-        <v>18144</v>
+        <v>34434</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>679</v>
+        <v>888</v>
       </c>
       <c r="D14" s="7">
-        <v>747288</v>
+        <v>924295</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>698</v>
+        <v>992</v>
       </c>
       <c r="I14" s="7">
-        <v>769365</v>
+        <v>1040910</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>1377</v>
+        <v>1880</v>
       </c>
       <c r="N14" s="7">
-        <v>1516653</v>
+        <v>1965206</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1751,153 +1685,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>689</v>
+        <v>910</v>
       </c>
       <c r="D15" s="7">
-        <v>757623</v>
+        <v>947739</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>705</v>
+        <v>1003</v>
       </c>
       <c r="I15" s="7">
-        <v>777174</v>
+        <v>1051901</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1394</v>
+        <v>1913</v>
       </c>
       <c r="N15" s="7">
-        <v>1534797</v>
+        <v>1999640</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="D16" s="7">
-        <v>23444</v>
+        <v>70636</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H16" s="7">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="I16" s="7">
-        <v>10991</v>
+        <v>38176</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="M16" s="7">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="N16" s="7">
-        <v>34434</v>
+        <v>108813</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>28</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>888</v>
+        <v>3145</v>
       </c>
       <c r="D17" s="7">
-        <v>924295</v>
+        <v>3356143</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="H17" s="7">
-        <v>992</v>
+        <v>3259</v>
       </c>
       <c r="I17" s="7">
-        <v>1040910</v>
+        <v>3515740</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="M17" s="7">
-        <v>1880</v>
+        <v>6404</v>
       </c>
       <c r="N17" s="7">
-        <v>1965206</v>
+        <v>6871881</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>37</v>
+        <v>104</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1906,217 +1840,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>910</v>
+        <v>3209</v>
       </c>
       <c r="D18" s="7">
-        <v>947739</v>
+        <v>3426779</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1003</v>
+        <v>3295</v>
       </c>
       <c r="I18" s="7">
-        <v>1051901</v>
+        <v>3553916</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1913</v>
+        <v>6504</v>
       </c>
       <c r="N18" s="7">
-        <v>1999640</v>
+        <v>6980694</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>64</v>
-      </c>
-      <c r="D19" s="7">
-        <v>70636</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="H19" s="7">
-        <v>36</v>
-      </c>
-      <c r="I19" s="7">
-        <v>38176</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="L19" s="7" t="s">
+      <c r="A19" t="s">
         <v>106</v>
       </c>
-      <c r="M19" s="7">
-        <v>100</v>
-      </c>
-      <c r="N19" s="7">
-        <v>108813</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3145</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3356143</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3259</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3515740</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="M20" s="7">
-        <v>6404</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6871881</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3209</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3426779</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3295</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3553916</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6504</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6980694</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>119</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2129,8 +1907,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AFFE7C3-E848-4A26-9119-99DD31F122F2}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86B41AFB-6715-45D0-9FE7-33BE44670CE1}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2146,7 +1924,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2247,100 +2025,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D4" s="7">
-        <v>1079</v>
+        <v>15379</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>109</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>10843</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>12</v>
+        <v>111</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="M4" s="7">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="N4" s="7">
-        <v>1079</v>
+        <v>26223</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>112</v>
+        <v>636</v>
       </c>
       <c r="D5" s="7">
-        <v>115467</v>
+        <v>659421</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>21</v>
+        <v>119</v>
       </c>
       <c r="H5" s="7">
-        <v>115</v>
+        <v>656</v>
       </c>
       <c r="I5" s="7">
-        <v>113360</v>
+        <v>661996</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>21</v>
+        <v>120</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>26</v>
+        <v>122</v>
       </c>
       <c r="M5" s="7">
-        <v>227</v>
+        <v>1292</v>
       </c>
       <c r="N5" s="7">
-        <v>228827</v>
+        <v>1321416</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>21</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2349,153 +2127,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>113</v>
+        <v>652</v>
       </c>
       <c r="D6" s="7">
-        <v>116546</v>
+        <v>674800</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>115</v>
+        <v>666</v>
       </c>
       <c r="I6" s="7">
-        <v>113360</v>
+        <v>672839</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>228</v>
+        <v>1318</v>
       </c>
       <c r="N6" s="7">
-        <v>229906</v>
+        <v>1347639</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D7" s="7">
-        <v>14301</v>
+        <v>18263</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="H7" s="7">
+        <v>14</v>
+      </c>
+      <c r="I7" s="7">
+        <v>16818</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="M7" s="7">
+        <v>32</v>
+      </c>
+      <c r="N7" s="7">
+        <v>35081</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="H7" s="7">
-        <v>10</v>
-      </c>
-      <c r="I7" s="7">
-        <v>10843</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="M7" s="7">
-        <v>25</v>
-      </c>
-      <c r="N7" s="7">
-        <v>25144</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>524</v>
+        <v>933</v>
       </c>
       <c r="D8" s="7">
-        <v>543953</v>
+        <v>1004168</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="H8" s="7">
+        <v>963</v>
+      </c>
+      <c r="I8" s="7">
+        <v>1026095</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="M8" s="7">
+        <v>1896</v>
+      </c>
+      <c r="N8" s="7">
+        <v>2030263</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="H8" s="7">
-        <v>541</v>
-      </c>
-      <c r="I8" s="7">
-        <v>548636</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="M8" s="7">
-        <v>1065</v>
-      </c>
-      <c r="N8" s="7">
-        <v>1092589</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2504,153 +2282,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>539</v>
+        <v>951</v>
       </c>
       <c r="D9" s="7">
-        <v>558254</v>
+        <v>1022431</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>551</v>
+        <v>977</v>
       </c>
       <c r="I9" s="7">
-        <v>559479</v>
+        <v>1042913</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1090</v>
+        <v>1928</v>
       </c>
       <c r="N9" s="7">
-        <v>1117733</v>
+        <v>2065344</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D10" s="7">
-        <v>18263</v>
+        <v>11231</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="H10" s="7">
+        <v>6</v>
+      </c>
+      <c r="I10" s="7">
+        <v>6839</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="M10" s="7">
+        <v>17</v>
+      </c>
+      <c r="N10" s="7">
+        <v>18070</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H10" s="7">
-        <v>14</v>
-      </c>
-      <c r="I10" s="7">
-        <v>16818</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="M10" s="7">
-        <v>32</v>
-      </c>
-      <c r="N10" s="7">
-        <v>35081</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>933</v>
+        <v>685</v>
       </c>
       <c r="D11" s="7">
-        <v>1004168</v>
+        <v>748321</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="H11" s="7">
+        <v>730</v>
+      </c>
+      <c r="I11" s="7">
+        <v>778172</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="M11" s="7">
+        <v>1415</v>
+      </c>
+      <c r="N11" s="7">
+        <v>1526493</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="H11" s="7">
-        <v>963</v>
-      </c>
-      <c r="I11" s="7">
-        <v>1026095</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="M11" s="7">
-        <v>1896</v>
-      </c>
-      <c r="N11" s="7">
-        <v>2030263</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2659,153 +2437,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>951</v>
+        <v>696</v>
       </c>
       <c r="D12" s="7">
-        <v>1022431</v>
+        <v>759552</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>977</v>
+        <v>736</v>
       </c>
       <c r="I12" s="7">
-        <v>1042913</v>
+        <v>785011</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1928</v>
+        <v>1432</v>
       </c>
       <c r="N12" s="7">
-        <v>2065344</v>
+        <v>1544563</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D13" s="7">
-        <v>11231</v>
+        <v>21901</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="H13" s="7">
+        <v>9</v>
+      </c>
+      <c r="I13" s="7">
+        <v>10051</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="M13" s="7">
+        <v>31</v>
+      </c>
+      <c r="N13" s="7">
+        <v>31952</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="H13" s="7">
-        <v>6</v>
-      </c>
-      <c r="I13" s="7">
-        <v>6839</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="M13" s="7">
-        <v>17</v>
-      </c>
-      <c r="N13" s="7">
-        <v>18070</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>685</v>
+        <v>910</v>
       </c>
       <c r="D14" s="7">
-        <v>748321</v>
+        <v>915666</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>172</v>
+        <v>61</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>83</v>
+        <v>166</v>
       </c>
       <c r="H14" s="7">
-        <v>730</v>
+        <v>950</v>
       </c>
       <c r="I14" s="7">
-        <v>778172</v>
+        <v>1033728</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="M14" s="7">
-        <v>1415</v>
+        <v>1860</v>
       </c>
       <c r="N14" s="7">
-        <v>1526493</v>
+        <v>1949394</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>177</v>
+        <v>120</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2814,153 +2592,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>696</v>
+        <v>932</v>
       </c>
       <c r="D15" s="7">
-        <v>759552</v>
+        <v>937567</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>736</v>
+        <v>959</v>
       </c>
       <c r="I15" s="7">
-        <v>785011</v>
+        <v>1043779</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1432</v>
+        <v>1891</v>
       </c>
       <c r="N15" s="7">
-        <v>1544563</v>
+        <v>1981346</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="D16" s="7">
-        <v>21901</v>
+        <v>66775</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>68</v>
+        <v>172</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>180</v>
+        <v>158</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="H16" s="7">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="I16" s="7">
-        <v>10051</v>
+        <v>44551</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>184</v>
+        <v>76</v>
       </c>
       <c r="M16" s="7">
-        <v>31</v>
+        <v>106</v>
       </c>
       <c r="N16" s="7">
-        <v>31952</v>
+        <v>111325</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>150</v>
+        <v>176</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>185</v>
+        <v>115</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>910</v>
+        <v>3164</v>
       </c>
       <c r="D17" s="7">
-        <v>915666</v>
+        <v>3327575</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>76</v>
+        <v>178</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
       <c r="H17" s="7">
-        <v>950</v>
+        <v>3299</v>
       </c>
       <c r="I17" s="7">
-        <v>1033728</v>
+        <v>3499991</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>190</v>
+        <v>85</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="M17" s="7">
-        <v>1860</v>
+        <v>6463</v>
       </c>
       <c r="N17" s="7">
-        <v>1949394</v>
+        <v>6827567</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>158</v>
+        <v>182</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>193</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2969,217 +2747,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>932</v>
+        <v>3231</v>
       </c>
       <c r="D18" s="7">
-        <v>937567</v>
+        <v>3394350</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>959</v>
+        <v>3338</v>
       </c>
       <c r="I18" s="7">
-        <v>1043779</v>
+        <v>3544542</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1891</v>
+        <v>6569</v>
       </c>
       <c r="N18" s="7">
-        <v>1981346</v>
+        <v>6938892</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>67</v>
-      </c>
-      <c r="D19" s="7">
-        <v>66775</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="H19" s="7">
-        <v>39</v>
-      </c>
-      <c r="I19" s="7">
-        <v>44551</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="M19" s="7">
+      <c r="A19" t="s">
         <v>106</v>
       </c>
-      <c r="N19" s="7">
-        <v>111325</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3164</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3327575</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3299</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3499991</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="M20" s="7">
-        <v>6463</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6827567</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3231</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3394350</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3338</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3544542</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6569</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6938892</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>119</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
